--- a/ClickerGame/Assets/Resources/Data/Excel/문서 규칙.xlsx
+++ b/ClickerGame/Assets/Resources/Data/Excel/문서 규칙.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Memory\CS-ClickerGame\ClickerGame\Assets\Resources\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B2639-B606-4B7E-B95C-D108F2A30F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172FABEA-29B8-493F-861D-127FDAEF0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18495" yWindow="675" windowWidth="21600" windowHeight="14475" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
+    <workbookView xWindow="22770" yWindow="1125" windowWidth="21600" windowHeight="14475" activeTab="5" xr2:uid="{8C878F7F-2353-4352-ABA1-4DA3E9BF44E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="문서 규칙" sheetId="1" r:id="rId1"/>
+    <sheet name="2.Boss" sheetId="8" r:id="rId2"/>
+    <sheet name="4.Upgrade" sheetId="5" r:id="rId3"/>
+    <sheet name="5.Weapon" sheetId="4" r:id="rId4"/>
+    <sheet name="6.Shop" sheetId="3" r:id="rId5"/>
+    <sheet name="8.String" sheetId="6" r:id="rId6"/>
+    <sheet name="9.Path" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>문서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,15 +67,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Craft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치하여 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch To Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Weapon/BattleAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Weapon/HDualBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Weapon/Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/WeaponAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Weapon/Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Weapon/Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefencePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad Remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD $&lt;size=120%&gt;&lt;#21bf82&gt;3.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW &lt;size=120%&gt;&lt;#21bf82&gt;4,900\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Sprite/Shop/AdRemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,81 +592,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571C3D52-F4A6-4D6B-876A-DEE7F9D5D3D7}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -516,12 +689,710 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7BA66-5030-437F-9DDF-A810912FA7BB}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>210001</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>210002</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>210003</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>210004</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>210005</v>
+      </c>
+      <c r="B7">
+        <v>350</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>210006</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB62A72-3879-4637-AA7E-A474583661D1}">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>410000</v>
+      </c>
+      <c r="B3">
+        <v>510001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>410001</v>
+      </c>
+      <c r="B4">
+        <v>510001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D3,E3)</f>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>410002</v>
+      </c>
+      <c r="B5">
+        <v>510001</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D4,E4)</f>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>410003</v>
+      </c>
+      <c r="B6">
+        <v>510001</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D5,E5)</f>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>410004</v>
+      </c>
+      <c r="B7">
+        <v>510001</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D6,E6)</f>
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>410005</v>
+      </c>
+      <c r="B8">
+        <v>510001</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D7,E7)</f>
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FF8978-7A4D-4CCE-87DE-7303823D3EEB}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>510001</v>
+      </c>
+      <c r="B3">
+        <v>910001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>510002</v>
+      </c>
+      <c r="B4">
+        <v>910002</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>510003</v>
+      </c>
+      <c r="B5">
+        <v>910003</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>510004</v>
+      </c>
+      <c r="B6">
+        <v>910004</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>510005</v>
+      </c>
+      <c r="B7">
+        <v>910005</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>510006</v>
+      </c>
+      <c r="B8">
+        <v>910006</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08ADCDD-295A-4117-AF8F-85EFC68CE8EA}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>610001</v>
+      </c>
+      <c r="B3">
+        <v>910007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>810008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>610002</v>
+      </c>
+      <c r="B4">
+        <v>910007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9EE8F-AD06-4E93-BF42-A81103ED372D}">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>810001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>810002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>810003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>810004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>810005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>810006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>810007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>810008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B661A13C-78C0-4024-AC23-0190BC46D0E0}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>910001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>910002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>910003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>910004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>910005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>910006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>910007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
